--- a/paper/Kalman Filter/sta.xlsx
+++ b/paper/Kalman Filter/sta.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sungh\Documents\GitHub\financelab\paper\Kalman Filter\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DD1BCE-874A-4526-86D7-03D253271BA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="165" windowWidth="14355" windowHeight="7710" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="데이타" sheetId="4" r:id="rId1"/>
@@ -15,7 +21,17 @@
     <sheet name="Sheet3" sheetId="7" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -6161,7 +6177,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
@@ -6289,12 +6305,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
   <c:roundedCorners val="0"/>
@@ -12238,6 +12257,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-68F6-43AA-8D65-C28BD93A192E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -18169,6 +18193,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-68F6-43AA-8D65-C28BD93A192E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -18178,7 +18207,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="182814592"/>
         <c:axId val="182816128"/>
@@ -18190,6 +18218,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -18219,7 +18248,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -18235,7 +18263,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
   <c:roundedCorners val="0"/>
@@ -18572,6 +18600,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-49E5-4CCF-95C7-129C92BE27EE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -18891,6 +18924,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-49E5-4CCF-95C7-129C92BE27EE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -18900,7 +18938,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="44396544"/>
         <c:axId val="43977344"/>
@@ -18945,7 +18982,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -18977,7 +19013,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="차트 3"/>
+        <xdr:cNvPr id="4" name="차트 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -19012,7 +19054,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="차트 3"/>
+        <xdr:cNvPr id="4" name="차트 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -19073,7 +19121,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -19106,9 +19154,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -19141,6 +19206,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -19316,13 +19398,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A943" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A883" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="H970" sqref="H970:J972"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -42090,16 +42172,17 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -44071,11 +44154,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D194"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="D194" sqref="D194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -46513,14 +46596,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -46681,7 +46767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -46748,10 +46834,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="U38" sqref="U38"/>
     </sheetView>
   </sheetViews>
@@ -47295,7 +47381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
